--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>696990.6805845634</v>
+        <v>718806.0144079971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843295</v>
+        <v>2305207.638772119</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6416422.93945842</v>
+        <v>6947701.48651226</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.64007343912586</v>
+        <v>33.69581527989786</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -820,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>83.71046610478342</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>73.09892042260154</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>116.6622110763731</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>35.34780583513536</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>155.914275500603</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>192.6947085449829</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>272.501805010002</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437707</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>164.0646111947721</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170461</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.97358346682226</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>172.3668577331189</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>215.1079155545868</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>129.5445345985665</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5168019860612</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,10 +3246,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3427,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3475,7 +3477,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>199.3487361229525</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3667,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.5695779437707</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>111.0877679785123</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225787</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>18.26782636978511</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>154.1378775183998</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492.8871665493286</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C2" t="n">
-        <v>54.74469373275195</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D2" t="n">
-        <v>54.74469373275195</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E2" t="n">
-        <v>54.74469373275195</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>489.9993811856698</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L2" t="n">
-        <v>489.9993811856698</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N2" t="n">
-        <v>1844.930551071281</v>
+        <v>2721.889967810442</v>
       </c>
       <c r="O2" t="n">
-        <v>1844.930551071281</v>
+        <v>3629.008549894782</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>3629.008549894782</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3629.008549894782</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="X2" t="n">
-        <v>987.678414935661</v>
+        <v>2942.264019815341</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.3922912353144</v>
+        <v>2533.977896114994</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J3" t="n">
-        <v>379.3030186989643</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>1600.811677117221</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1736.541990399339</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>1563.980278882564</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>1479.424252514096</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>1479.424252514096</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>1302.717198475852</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>1137.12592350168</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>1137.12592350168</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>1135.045659441045</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>1409.80411401218</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>1828.013995780141</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>2729.756666118699</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>3149.42591534448</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>3496.932809314822</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>3643.707762884526</v>
       </c>
       <c r="S4" t="n">
-        <v>2737.234686637598</v>
+        <v>3484.466394182523</v>
       </c>
       <c r="T4" t="n">
-        <v>2491.355240216053</v>
+        <v>3238.586947760978</v>
       </c>
       <c r="U4" t="n">
-        <v>2212.922239469158</v>
+        <v>2960.153947014083</v>
       </c>
       <c r="V4" t="n">
-        <v>1925.966731339589</v>
+        <v>2673.198438884514</v>
       </c>
       <c r="W4" t="n">
-        <v>1653.94032692588</v>
+        <v>2401.172034470806</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>2155.780279804218</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>1928.360609118326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1173.556898629924</v>
+        <v>2135.636539604179</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.556898629924</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D5" t="n">
-        <v>1173.556898629924</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E5" t="n">
-        <v>1173.556898629924</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>745.6894690391318</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2916376623957</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>535.6838670561251</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1213.149451998931</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M5" t="n">
-        <v>1890.615036941736</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N5" t="n">
-        <v>2568.080621884541</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O5" t="n">
-        <v>2568.080621884541</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T5" t="n">
-        <v>2619.394069388736</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U5" t="n">
-        <v>2360.171766705753</v>
+        <v>3322.251407680008</v>
       </c>
       <c r="V5" t="n">
-        <v>1997.55481663958</v>
+        <v>2959.634457613834</v>
       </c>
       <c r="W5" t="n">
-        <v>1592.699362050613</v>
+        <v>2554.779003024868</v>
       </c>
       <c r="X5" t="n">
-        <v>1173.556898629924</v>
+        <v>2135.636539604179</v>
       </c>
       <c r="Y5" t="n">
-        <v>1173.556898629924</v>
+        <v>2135.636539604179</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>363.05328532595</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>1040.518870268755</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>274.59864103668</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>109.0073660625077</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2219.288413420342</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.651074442687</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D8" t="n">
-        <v>1078.651074442687</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>884.0099547002803</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>489.9993811856698</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3405.903281496171</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2638.430876841031</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2219.288413420342</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2219.288413420342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691638</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001787</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.006564617949</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="K9" t="n">
-        <v>405.3666918594219</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="L9" t="n">
-        <v>405.3666918594219</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3666918594219</v>
+        <v>2758.007002094814</v>
       </c>
       <c r="N9" t="n">
-        <v>405.3666918594219</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="O9" t="n">
-        <v>405.3666918594219</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627537</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958107</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020106</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>905.2407308096831</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T10" t="n">
-        <v>2404.107035919379</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U10" t="n">
-        <v>2128.852687424428</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
-        <v>1841.897179294858</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.87077488115</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.479020214562</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.05934952867</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1317.784699541985</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C11" t="n">
-        <v>1317.784699541985</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.784699541985</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E11" t="n">
-        <v>884.0099547002803</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K11" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L11" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2571.512857147929</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.512857147929</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X11" t="n">
-        <v>2152.37039372724</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.084270026893</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>923.3460921744155</v>
+        <v>712.2509129837115</v>
       </c>
       <c r="L12" t="n">
-        <v>923.3460921744155</v>
+        <v>712.2509129837115</v>
       </c>
       <c r="M12" t="n">
-        <v>923.3460921744155</v>
+        <v>712.2509129837115</v>
       </c>
       <c r="N12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.802854344633</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>663.0441650514773</v>
+        <v>1164.635492108126</v>
       </c>
       <c r="C14" t="n">
-        <v>488.9362279473168</v>
+        <v>726.4930192915494</v>
       </c>
       <c r="D14" t="n">
-        <v>488.9362279473168</v>
+        <v>290.5832344659939</v>
       </c>
       <c r="E14" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="F14" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>732.2102786755574</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2517.167459510636</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U14" t="n">
-        <v>2257.945156827654</v>
+        <v>3185.83605436921</v>
       </c>
       <c r="V14" t="n">
-        <v>1895.32820676148</v>
+        <v>2823.219104303036</v>
       </c>
       <c r="W14" t="n">
-        <v>1490.472752172513</v>
+        <v>2418.36364971407</v>
       </c>
       <c r="X14" t="n">
-        <v>1071.330288751824</v>
+        <v>1999.22118629338</v>
       </c>
       <c r="Y14" t="n">
-        <v>663.0441650514773</v>
+        <v>1590.935062593034</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1082.832276802227</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>1082.832276802227</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.832276802227</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.832276802227</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>1082.832276802227</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1082.832276802227</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,16 +5521,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278435343481</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9207894961043</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,16 +6235,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="32">
@@ -6704,25 +6706,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
         <v>1008.757289365886</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>834.8539430951545</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>662.2922315783794</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>496.4142387799021</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7123,22 +7125,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2336.898900456793</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2058.465899709899</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1771.510391580329</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.483987166621</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1254.092232500033</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1026.672561814142</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7199,7 +7201,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.439125807381</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>306.9256944654254</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2625.024819992636</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V41" t="n">
-        <v>2625.024819992636</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W41" t="n">
-        <v>2625.024819992636</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X41" t="n">
-        <v>2625.024819992636</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.738696292289</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4798998523679</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C43" t="n">
-        <v>750.9181883355928</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D43" t="n">
-        <v>585.0401955371156</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E43" t="n">
-        <v>415.2821917878528</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F43" t="n">
-        <v>238.575137749609</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G43" t="n">
-        <v>72.98386277543668</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.524857214007</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.091856467112</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.136348337543</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.109943923834</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X43" t="n">
-        <v>1342.718189257247</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.298518571355</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1754.111273740401</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="C44" t="n">
-        <v>1754.111273740401</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="D44" t="n">
-        <v>1318.201488914845</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E44" t="n">
-        <v>884.4267440731403</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F44" t="n">
-        <v>456.5593144823481</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V44" t="n">
-        <v>2581.539860861436</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W44" t="n">
-        <v>2581.539860861436</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X44" t="n">
-        <v>2162.397397440747</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y44" t="n">
-        <v>1754.111273740401</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6510928577823</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C46" t="n">
-        <v>798.5094022949546</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D46" t="n">
-        <v>632.6314094964773</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8734057472146</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F46" t="n">
-        <v>286.1663517089709</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.281136929249</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X46" t="n">
-        <v>1227.889382262661</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000.469711576769</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>36.48185281249698</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>523.2115154696905</v>
+        <v>291.2387910843016</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9881,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,10 +10354,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10823,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11063,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336.3965013409328</v>
+        <v>388.3407595001609</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>80.50874676570911</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>360.6621276658094</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>101.2043437793187</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313939</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>277.8467725878079</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>236.7422888483048</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,10 +23077,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,10 +23232,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>3.146865729423723</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>201.814275119198</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23315,10 +23317,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>194.9261693707396</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.1718905122106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>261.394190355292</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>214.329081838701</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.67467827192601</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.383630545736</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>54.79268646174602</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>44.07191583437682</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>201.814275119198</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25682,16 +25684,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.542311677641</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>413.2828606075148</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>204.8529030471119</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.484161047</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.484161047</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.484161047</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.4841610469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672545.7205039528</v>
+        <v>672545.7205039529</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039528</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039528</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438331.0293307553</v>
+        <v>529805.484161047</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438331.0293307554</v>
+        <v>529805.484161047</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="C2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="D2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="E2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="F2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="H2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
@@ -26341,7 +26343,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755437</v>
@@ -26350,10 +26352,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="P2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26801.84454233229</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="C4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="D4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825124</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825124</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.84454233229</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26447,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142504.5774737375</v>
+        <v>-200528.6433342558</v>
       </c>
       <c r="C6" t="n">
-        <v>86822.99749877542</v>
+        <v>106538.3269524619</v>
       </c>
       <c r="D6" t="n">
-        <v>86822.99749877542</v>
+        <v>106538.3269524619</v>
       </c>
       <c r="E6" t="n">
-        <v>120450.5974987754</v>
+        <v>140165.9269524619</v>
       </c>
       <c r="F6" t="n">
-        <v>120450.5974987754</v>
+        <v>140165.9269524619</v>
       </c>
       <c r="G6" t="n">
-        <v>8137.192941397108</v>
+        <v>71717.43710456649</v>
       </c>
       <c r="H6" t="n">
-        <v>170930.4807398386</v>
+        <v>170930.4807398385</v>
       </c>
       <c r="I6" t="n">
-        <v>170930.4807398386</v>
+        <v>170930.4807398385</v>
       </c>
       <c r="J6" t="n">
-        <v>-8114.777347813404</v>
+        <v>-68809.04884690413</v>
       </c>
       <c r="K6" t="n">
         <v>170930.4807398385</v>
       </c>
       <c r="L6" t="n">
-        <v>170930.4807398386</v>
+        <v>170930.4807398385</v>
       </c>
       <c r="M6" t="n">
-        <v>170930.4807398385</v>
+        <v>170930.4807398384</v>
       </c>
       <c r="N6" t="n">
         <v>170930.4807398385</v>
       </c>
       <c r="O6" t="n">
-        <v>120450.5974987754</v>
+        <v>140165.9269524619</v>
       </c>
       <c r="P6" t="n">
-        <v>120450.5974987754</v>
+        <v>140165.9269524619</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>36.48185281249698</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
         <v>464.1251183645586</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>523.2115154696905</v>
+        <v>291.2387910843016</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,19 +35889,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36601,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,10 +37074,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38096,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718806.0144079971</v>
+        <v>717184.8559167138</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655642</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772119</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.69581527989786</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>146.6183783959167</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>83.71046610478342</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>73.09892042260154</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -913,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>67.83011522338251</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H7" t="n">
-        <v>35.34780583513536</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>155.914275500603</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>61.4337221696785</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>195.5695779437707</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>48.25257550243558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170461</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1612,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>215.1079155545868</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>129.0511926724031</v>
       </c>
     </row>
     <row r="15">
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>129.5445345985665</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>109.1426757626846</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>195.5695779437707</v>
+        <v>386.9149364544543</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>18.26782636978511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>124.892137863357</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2499.941719064592</v>
+        <v>2212.131306356124</v>
       </c>
       <c r="C2" t="n">
-        <v>2061.799246248016</v>
+        <v>1773.988833539548</v>
       </c>
       <c r="D2" t="n">
         <v>1625.88946142246</v>
@@ -4324,58 +4324,58 @@
         <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>907.652803641761</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>1814.771385726102</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>1814.771385726102</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>2721.889967810442</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>3629.008549894782</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P2" t="n">
-        <v>3629.008549894782</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q2" t="n">
-        <v>3629.008549894782</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3361.40648323603</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3361.40648323603</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V2" t="n">
-        <v>3361.40648323603</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W2" t="n">
-        <v>3361.40648323603</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X2" t="n">
-        <v>2942.264019815341</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="Y2" t="n">
-        <v>2533.977896114994</v>
+        <v>2638.430876841032</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
         <v>1078.630556435977</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1736.541990399339</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C4" t="n">
-        <v>1563.980278882564</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D4" t="n">
-        <v>1479.424252514096</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E4" t="n">
-        <v>1479.424252514096</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F4" t="n">
-        <v>1302.717198475852</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G4" t="n">
-        <v>1137.12592350168</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>1137.12592350168</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>1135.045659441045</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>1409.80411401218</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.013995780141</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>2287.497862961055</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>2729.756666118699</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>3149.42591534448</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>3496.932809314822</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>3643.707762884526</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>3484.466394182523</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>3238.586947760978</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>2960.153947014083</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>2673.198438884514</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>2401.172034470806</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>2155.780279804218</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>1928.360609118326</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2135.636539604179</v>
+        <v>1843.0002582118</v>
       </c>
       <c r="C5" t="n">
-        <v>2061.799246248016</v>
+        <v>1404.857785395223</v>
       </c>
       <c r="D5" t="n">
-        <v>1625.88946142246</v>
+        <v>1404.857785395223</v>
       </c>
       <c r="E5" t="n">
-        <v>1192.114716580755</v>
+        <v>971.083040553518</v>
       </c>
       <c r="F5" t="n">
-        <v>764.247286989963</v>
+        <v>543.2156109627258</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8494556132268</v>
+        <v>141.8177795859897</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
         <v>508.557199136501</v>
@@ -4573,46 +4573,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>3581.473710362991</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U5" t="n">
-        <v>3322.251407680008</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V5" t="n">
-        <v>2959.634457613834</v>
+        <v>3082.44140698602</v>
       </c>
       <c r="W5" t="n">
-        <v>2554.779003024868</v>
+        <v>2677.585952397054</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.636539604179</v>
+        <v>2677.585952397054</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.636539604179</v>
+        <v>2269.299828696707</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
         <v>1078.630556435977</v>
@@ -4713,19 +4713,19 @@
         <v>274.59864103668</v>
       </c>
       <c r="F7" t="n">
-        <v>274.59864103668</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0073660625077</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
         <v>434.6406514194085</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2219.288413420342</v>
+        <v>1381.54630354028</v>
       </c>
       <c r="C8" t="n">
-        <v>2061.799246248016</v>
+        <v>943.4038307237034</v>
       </c>
       <c r="D8" t="n">
-        <v>1625.88946142246</v>
+        <v>507.4940458981479</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.114716580755</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="F8" t="n">
-        <v>764.247286989963</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8494556132268</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>508.557199136501</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="K8" t="n">
-        <v>1342.907491094679</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L8" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M8" t="n">
-        <v>2121.162858634106</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
-        <v>2121.162858634106</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U8" t="n">
-        <v>3405.903281496171</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V8" t="n">
-        <v>3043.286331429998</v>
+        <v>3040.12991573519</v>
       </c>
       <c r="W8" t="n">
-        <v>2638.430876841031</v>
+        <v>2635.274461146224</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.288413420342</v>
+        <v>2216.131997725535</v>
       </c>
       <c r="Y8" t="n">
-        <v>2219.288413420342</v>
+        <v>1807.845874025188</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2508.057567691638</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>2212.390403001787</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>2129.006564617949</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>2001.885822700345</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>2001.885822700345</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>2001.885822700345</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>2001.885822700345</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>2001.885822700345</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>2758.007002094814</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>3665.125584179154</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>3665.125584179154</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>3665.125584179154</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>3601.670146627537</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>3295.154955958107</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>3096.037438020106</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1152.360672295464</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C10" t="n">
-        <v>979.7989607786893</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D10" t="n">
-        <v>813.920967980212</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E10" t="n">
-        <v>644.1629642309493</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4559101927056</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8646352185332</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H10" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
         <v>434.6406514194085</v>
@@ -4986,28 +4986,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2654.405629657103</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>2375.972628910209</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.017120780639</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W10" t="n">
-        <v>1816.990716366931</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.598961700343</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y10" t="n">
-        <v>1344.179291014452</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2006.541971984243</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.399499167667</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D11" t="n">
-        <v>1132.489714342111</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E11" t="n">
-        <v>698.7149695004064</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F11" t="n">
-        <v>270.8475399096141</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358308</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="L11" t="n">
-        <v>73.30251168358308</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="M11" t="n">
-        <v>980.4210937679236</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="N11" t="n">
-        <v>1214.044276549766</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634106</v>
+        <v>2322.794363305183</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467503</v>
+        <v>3151.104238138579</v>
       </c>
       <c r="Q11" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3312.666507981045</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.125584179154</v>
+        <v>3312.666507981045</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.270129590187</v>
+        <v>2907.811053392079</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.127666169498</v>
+        <v>2907.811053392079</v>
       </c>
       <c r="Y11" t="n">
-        <v>2432.841542469151</v>
+        <v>2499.524929691732</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>712.2509129837115</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>712.2509129837115</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>712.2509129837115</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>1619.369495068052</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>1619.369495068052</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.369495068052</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
         <v>434.6406514194085</v>
@@ -5226,25 +5226,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.635492108126</v>
+        <v>1662.634102862301</v>
       </c>
       <c r="C14" t="n">
-        <v>726.4930192915494</v>
+        <v>1224.491630045724</v>
       </c>
       <c r="D14" t="n">
-        <v>290.5832344659939</v>
+        <v>1224.491630045724</v>
       </c>
       <c r="E14" t="n">
-        <v>73.30251168358308</v>
+        <v>790.716885204019</v>
       </c>
       <c r="F14" t="n">
-        <v>73.30251168358308</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358308</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
         <v>508.557199136501</v>
@@ -5284,46 +5284,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>2121.162858634106</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M14" t="n">
-        <v>2121.162858634106</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N14" t="n">
-        <v>2121.162858634106</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634106</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467503</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q14" t="n">
-        <v>3495.971519426097</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3445.058357052193</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3185.83605436921</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V14" t="n">
-        <v>2823.219104303036</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W14" t="n">
-        <v>2418.36364971407</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X14" t="n">
-        <v>1999.22118629338</v>
+        <v>2219.288413420343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1590.935062593034</v>
+        <v>2088.933673347208</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
         <v>423.924509810253</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
         <v>415.6008406959992</v>
@@ -5427,16 +5427,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
         <v>434.6406514194085</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5901,7 +5901,7 @@
         <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>210.9600532992111</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>210.9600532992111</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>210.9600532992111</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.634124109936</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>885.0724125931612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2281.246080724681</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1994.290572595111</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.264168181403</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.872413514815</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1249.452742828923</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,16 +6709,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6894,16 +6894,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>617.7751448769883</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>617.7751448769883</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>441.0680908387445</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779172</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2006.541971984243</v>
+        <v>2489.367055823669</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.399499167667</v>
+        <v>2051.224583007092</v>
       </c>
       <c r="D41" t="n">
-        <v>1132.489714342111</v>
+        <v>1615.314798181536</v>
       </c>
       <c r="E41" t="n">
-        <v>698.7149695004064</v>
+        <v>1181.540053339832</v>
       </c>
       <c r="F41" t="n">
-        <v>270.8475399096141</v>
+        <v>753.6726237490393</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358308</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358308</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>73.30251168358308</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>306.9256944654254</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>1214.044276549766</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634106</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467503</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3495.971519426097</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179154</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W41" t="n">
-        <v>3260.270129590187</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.127666169498</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="Y41" t="n">
-        <v>2432.841542469151</v>
+        <v>2489.367055823669</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
         <v>423.924509810253</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
         <v>434.6406514194085</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2654.405629657103</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1643.92502191807</v>
+        <v>1507.283188776872</v>
       </c>
       <c r="C44" t="n">
-        <v>1643.92502191807</v>
+        <v>1069.140715960295</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.4726720496</v>
+        <v>633.2309311347394</v>
       </c>
       <c r="E44" t="n">
-        <v>1191.697927207895</v>
+        <v>199.4561862930346</v>
       </c>
       <c r="F44" t="n">
-        <v>763.830497617103</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G44" t="n">
-        <v>362.4326662403668</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358308</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>980.4210937679236</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M44" t="n">
-        <v>980.4210937679236</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N44" t="n">
-        <v>1214.044276549766</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O44" t="n">
-        <v>2121.162858634106</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467503</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3495.971519426097</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V44" t="n">
-        <v>3302.50863411298</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W44" t="n">
-        <v>2897.653179524013</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.510716103324</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y44" t="n">
-        <v>2070.224592402978</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
         <v>434.6406514194085</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2654.405629657103</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>36.48185281249698</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,7 +8221,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M8" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>348.3507891793129</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>291.2387910843016</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>786.1165328681086</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.3407595001609</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>284.9323085813832</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.50874676570911</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>360.6621276658094</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>218.4087377878334</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H7" t="n">
-        <v>103.1553467313939</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>277.8467725878079</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>297.5570583958332</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>201.814275119198</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>208.3775041537177</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>214.329081838701</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>275.1520697909399</v>
       </c>
     </row>
     <row r="15">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>120.4463752142721</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.67467827192601</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.79268646174602</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.814275119198</v>
+        <v>10.46891660851441</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>413.2828606075148</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>298.6966174315273</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>529805.484161047</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>529805.484161047</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>529805.484161047</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>529805.4841610469</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039528</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039528</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039528</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529805.484161047</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529805.484161047</v>
+        <v>529805.4841610471</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755437</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527209</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32395.06964825125</v>
+        <v>32395.06964825126</v>
       </c>
       <c r="C4" t="n">
         <v>32395.06964825125</v>
       </c>
       <c r="D4" t="n">
-        <v>32395.06964825124</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="E4" t="n">
-        <v>32395.06964825124</v>
+        <v>32395.06964825126</v>
       </c>
       <c r="F4" t="n">
-        <v>32395.06964825125</v>
+        <v>32395.06964825126</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200528.6433342558</v>
+        <v>-200831.4166090717</v>
       </c>
       <c r="C6" t="n">
-        <v>106538.3269524619</v>
+        <v>106235.553677646</v>
       </c>
       <c r="D6" t="n">
-        <v>106538.3269524619</v>
+        <v>106235.553677646</v>
       </c>
       <c r="E6" t="n">
-        <v>140165.9269524619</v>
+        <v>139863.153677646</v>
       </c>
       <c r="F6" t="n">
-        <v>140165.9269524619</v>
+        <v>139863.1536776461</v>
       </c>
       <c r="G6" t="n">
-        <v>71717.43710456649</v>
+        <v>71694.21276518388</v>
       </c>
       <c r="H6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="I6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="J6" t="n">
-        <v>-68809.04884690413</v>
+        <v>-68832.27318628684</v>
       </c>
       <c r="K6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="L6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="M6" t="n">
-        <v>170930.4807398384</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="N6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="O6" t="n">
-        <v>140165.9269524619</v>
+        <v>139863.153677646</v>
       </c>
       <c r="P6" t="n">
-        <v>140165.9269524619</v>
+        <v>139863.1536776461</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>36.48185281249698</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,7 +34941,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M8" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>348.3507891793129</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>291.2387910843016</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>786.1165328681086</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37077,19 +37077,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>235.9830129109519</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
